--- a/SpMVC_EMS/00.테이블명세 양식.xlsx
+++ b/SpMVC_EMS/00.테이블명세 양식.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\one_day_project\SpMVC_EMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\project_EMS\SpMVC_EMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ems 테이블 명세" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -943,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:H13"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" activeCellId="1" sqref="E5:E13 C5:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2023,4 +2024,92 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>